--- a/Excel/Support.xlsx
+++ b/Excel/Support.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06006854\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F48A6C-C3B3-4505-94A2-D2E454FEECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D22804-53AF-432D-BE53-6DE82C088287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5480" yWindow="3790" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -93,18 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Track</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +103,19 @@
     <t>0</t>
   </si>
   <si>
-    <t>(0,0)</t>
-  </si>
-  <si>
-    <t>(0,0)</t>
+    <t>RangeTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+      <selection activeCell="L5" sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,19 +532,22 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -564,25 +564,26 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -599,25 +600,26 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -634,25 +636,26 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -669,21 +672,22 @@
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Support.xlsx
+++ b/Excel/Support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D22804-53AF-432D-BE53-6DE82C088287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0BAF5-C138-4548-A6FE-B177BBBA51E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5480" yWindow="3790" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>魔力壓縮</t>
-  </si>
-  <si>
     <t>該回合的魔法攻擊力上升{1}%</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>猛力一擊</t>
-  </si>
-  <si>
     <t>該回合的物理攻擊力上升{1}%</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>金剛結界</t>
-  </si>
-  <si>
     <t>使距離自己2格內的夥伴物理防禦力上升{1}%</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>退魔結界</t>
-  </si>
-  <si>
     <t>使距離自己2格內的夥伴魔法防禦力上升{1}%</t>
   </si>
   <si>
@@ -116,6 +104,22 @@
   </si>
   <si>
     <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻擊力上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻擊力上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理防禦力上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法防禦力上升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +508,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="A1:L5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -526,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -552,22 +556,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -585,25 +589,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -621,25 +625,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -657,25 +661,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -696,7 +700,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 A5 A2 C2:E2 A3 C3:E3 A4 C4:E4 C5:E5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>